--- a/public/excel_templates/transaction_templates/purchase_order_template.xlsx
+++ b/public/excel_templates/transaction_templates/purchase_order_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp8.2\htdocs\MaxVita\public\excel_templates\transaction_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8552D3CF-F121-4F02-8B20-55F6B543E361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F6E40-9D16-4A43-894D-D93118AC8340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{611B1878-9550-47E4-B8AE-8BB26D2CADD3}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{611B1878-9550-47E4-B8AE-8BB26D2CADD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>vendor_name:</t>
-  </si>
-  <si>
-    <t>vendor_code:</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>quantity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>PO Number:</t>
+  </si>
+  <si>
+    <t>Vendor Name:</t>
+  </si>
+  <si>
+    <t>Vendor Code:</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -422,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A2769-59A8-4D4A-AEB4-5627C87A5CB6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
   </cols>
@@ -439,19 +442,26 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
